--- a/medicine/Premiers secours et secourisme/Évolution_détaillée_des_accidents_routiers_en_France_métropolitaine/Évolution_détaillée_des_accidents_routiers_en_France_métropolitaine.xlsx
+++ b/medicine/Premiers secours et secourisme/Évolution_détaillée_des_accidents_routiers_en_France_métropolitaine/Évolution_détaillée_des_accidents_routiers_en_France_métropolitaine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89volution_d%C3%A9taill%C3%A9e_des_accidents_routiers_en_France_m%C3%A9tropolitaine</t>
+          <t>Évolution_détaillée_des_accidents_routiers_en_France_métropolitaine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article traite de l'évolution détaillée des accidents et victimes de la circulation routière en France métropolitaine à partir des statistiques annuelles officielles fournies par l'Observatoire national interministériel de la sécurité routière (ONISR).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89volution_d%C3%A9taill%C3%A9e_des_accidents_routiers_en_France_m%C3%A9tropolitaine</t>
+          <t>Évolution_détaillée_des_accidents_routiers_en_France_métropolitaine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Évolution détaillée des accidents et victimes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les statistiques commencent en 1948 et excluent tout décès survenu plus de trois jours après l'accident jusqu'en 1966, un comparatif existe avec l'année qui a suivi.
-Les tableaux détaillés d’évolution des accidents et des victimes en métropole sont les suivants[1] :
+Les tableaux détaillés d’évolution des accidents et des victimes en métropole sont les suivants :
 De 1967 à 2004, la France évaluait les tués à six jours :
 Depuis 2005, les statistiques recensent les tués à trente jours :
 </t>
